--- a/PFF_SCR_TAX_ADAM/011124_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/011124_analysis_by_cell_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_03</t>
+          <t>1K_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_04</t>
+          <t>1K_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,37 +492,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_04</t>
+          <t>1K_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_05</t>
+          <t>1K_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_05</t>
+          <t>1K_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -531,11 +531,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_05</t>
+          <t>1K_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -544,33 +544,33 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_05</t>
+          <t>1K_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_05</t>
+          <t>1K_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_06</t>
+          <t>1K_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,11 +583,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_07</t>
+          <t>1K_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -596,11 +596,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_07</t>
+          <t>1K_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_08</t>
+          <t>1K_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_08</t>
+          <t>1K_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_08</t>
+          <t>1K_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,7 +661,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -713,11 +713,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -726,14 +726,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -743,23 +743,23 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_10</t>
+          <t>1K_SCR_01</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -782,20 +782,20 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -817,11 +817,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -830,24 +830,24 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -856,11 +856,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,14 +869,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -908,14 +908,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_SCR_05</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -938,20 +938,20 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1K_SCR_05</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1K_SCR_08</t>
+          <t>1K_SCR_09</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1168,11 +1168,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1K_SCR_09</t>
+          <t>1K_SCR_10</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1181,11 +1181,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1K_SCR_09</t>
+          <t>1K_SCR_10</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1194,11 +1194,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1K_SCR_09</t>
+          <t>1K_SCR_10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1207,37 +1207,37 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1K_SCR_10</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1K_SCR_10</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1K_SCR_10</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1246,40 +1246,40 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1298,11 +1298,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_05</t>
+          <t>1K_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1337,37 +1337,37 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_06</t>
+          <t>1K_TAX1BP1_07</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1415,14 +1415,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>WT_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1558,11 +1558,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_04</t>
+          <t>WT_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1597,11 +1597,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_05</t>
+          <t>WT_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -1649,24 +1649,24 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_06</t>
+          <t>WT_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_06</t>
+          <t>WT_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1675,20 +1675,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_07</t>
+          <t>WT_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_07</t>
+          <t>WT_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1714,11 +1714,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_08</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1727,11 +1727,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_08</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -1740,11 +1740,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_08</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1766,24 +1766,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>WT_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -1792,24 +1792,24 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_10</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1831,11 +1831,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1844,11 +1844,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,24 +1870,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>WT_SCR_02</t>
+          <t>WT_SCR_03</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>WT_SCR_02</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -1896,11 +1896,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>WT_SCR_02</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1909,11 +1909,11 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>WT_SCR_03</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1922,24 +1922,24 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>WT_SCR_03</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1948,11 +1948,11 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1961,11 +1961,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1974,24 +1974,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2000,37 +2000,37 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,24 +2039,24 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2065,11 +2065,11 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_SCR_09</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,7 +2091,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_SCR_09</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,11 +2104,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_SCR_10</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2117,11 +2117,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_SCR_10</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -2130,24 +2130,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_SCR_10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -2156,24 +2156,24 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2182,20 +2182,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>WT_SCR_09</t>
+          <t>WT_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>WT_SCR_09</t>
+          <t>WT_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,11 +2221,11 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -2234,33 +2234,33 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,50 +2273,50 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>2</v>
       </c>
       <c r="C142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -2325,24 +2325,24 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2351,50 +2351,50 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>WT_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,33 +2403,33 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_TAX1BP1_07</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,7 +2442,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,144 +2455,66 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>2</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_07</t>
+          <t>WT_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>WT_TAX1BP1_08</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>1</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>WT_TAX1BP1_08</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>2</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>WT_TAX1BP1_08</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>3</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>WT_TAX1BP1_09</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>0</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>WT_TAX1BP1_10</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>0</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>WT_TAX1BP1_10</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PFF_SCR_TAX_ADAM/011124_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/011124_analysis_by_cell_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,17 +460,17 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_01</t>
+          <t>1K_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -483,23 +483,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_03</t>
+          <t>1K_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -596,11 +596,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_06</t>
+          <t>1K_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -609,11 +609,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_07</t>
+          <t>1K_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,11 +622,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_07</t>
+          <t>1K_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -635,11 +635,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_07</t>
+          <t>1K_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_08</t>
+          <t>1K_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,11 +661,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_08</t>
+          <t>1K_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -674,11 +674,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -687,11 +687,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -700,11 +700,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -713,11 +713,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_10</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -726,59 +726,59 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_10</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_10</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,11 +791,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -804,11 +804,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -817,11 +817,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -830,33 +830,33 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,11 +869,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_SCR_01</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -882,11 +882,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_SCR_01</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -895,11 +895,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_SCR_01</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -908,33 +908,33 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1K_SCR_05</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1K_SCR_05</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1K_SCR_05</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,11 +947,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -960,11 +960,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -973,24 +973,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -999,11 +999,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1012,24 +1012,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1038,11 +1038,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_05</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1051,11 +1051,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_05</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1064,11 +1064,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_05</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1077,11 +1077,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1090,11 +1090,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1K_SCR_08</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1103,11 +1103,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1K_SCR_08</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1116,11 +1116,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1K_SCR_08</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1K_SCR_09</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1142,11 +1142,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1K_SCR_09</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1155,11 +1155,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1K_SCR_09</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1168,11 +1168,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1K_SCR_10</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1181,11 +1181,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1K_SCR_10</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1194,11 +1194,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1K_SCR_10</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1207,37 +1207,37 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_05</t>
+          <t>1K_SCR_09</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,20 +1272,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_05</t>
+          <t>1K_SCR_09</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_05</t>
+          <t>1K_SCR_09</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,11 +1298,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_06</t>
+          <t>1K_SCR_09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1311,11 +1311,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_06</t>
+          <t>1K_SCR_09</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1324,11 +1324,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_06</t>
+          <t>1K_SCR_10</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1337,76 +1337,76 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_07</t>
+          <t>1K_SCR_10</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_08</t>
+          <t>1K_SCR_10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_09</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1415,20 +1415,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_01</t>
+          <t>1K_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1441,24 +1441,24 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_03</t>
+          <t>1K_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1467,24 +1467,24 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_03</t>
+          <t>1K_TAX1BP1_07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_03</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1493,24 +1493,24 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_03</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_03</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1519,24 +1519,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_04</t>
+          <t>1K_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_04</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1545,11 +1545,11 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_04</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1558,11 +1558,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_05</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1571,11 +1571,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_05</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1584,11 +1584,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_05</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1597,24 +1597,24 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_06</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_06</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1623,11 +1623,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_06</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,46 +1636,46 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_06</t>
+          <t>WT_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_07</t>
+          <t>WT_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_07</t>
+          <t>WT_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_08</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_08</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_08</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,11 +1714,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1727,11 +1727,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -1740,11 +1740,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1753,11 +1753,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>WT_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1766,24 +1766,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_10</t>
+          <t>WT_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>WT_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -1792,24 +1792,24 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>WT_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>WT_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -1818,11 +1818,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>WT_SCR_02</t>
+          <t>WT_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1831,11 +1831,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>WT_SCR_02</t>
+          <t>WT_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1844,11 +1844,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>WT_SCR_02</t>
+          <t>WT_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,11 +1857,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>WT_SCR_02</t>
+          <t>WT_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,24 +1870,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>WT_SCR_03</t>
+          <t>WT_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>WT_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -1896,11 +1896,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>WT_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1909,37 +1909,37 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>WT_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>WT_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>WT_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1948,11 +1948,11 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1961,11 +1961,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1974,11 +1974,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,37 +2000,37 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,50 +2039,50 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>WT_SCR_09</t>
+          <t>WT_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2091,11 +2091,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>WT_SCR_09</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2104,37 +2104,37 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,7 +2156,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2169,7 +2169,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2182,20 +2182,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>3</v>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_SCR_03</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_SCR_03</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_SCR_03</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,37 +2234,37 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2273,63 +2273,63 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -2338,11 +2338,11 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2364,11 +2364,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2377,24 +2377,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,33 +2403,33 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_07</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,7 +2442,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,37 +2455,37 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>2</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_09</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_10</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2494,11 +2494,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_10</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2507,14 +2507,495 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
+          <t>WT_SCR_08</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>6</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>WT_SCR_09</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>WT_SCR_09</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>WT_SCR_09</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>WT_SCR_10</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>WT_SCR_10</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>WT_SCR_10</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>WT_SCR_10</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>3</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>3</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>4</v>
+      </c>
+      <c r="C188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>3</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_09</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
           <t>WT_TAX1BP1_10</t>
         </is>
       </c>
-      <c r="B160" t="n">
-        <v>2</v>
-      </c>
-      <c r="C160" t="n">
-        <v>8</v>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PFF_SCR_TAX_ADAM/011124_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/011124_analysis_by_cell_NEW.xlsx
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -980,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1019,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -2878,7 +2878,7 @@
         <v>4</v>
       </c>
       <c r="C188" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">

--- a/PFF_SCR_TAX_ADAM/011124_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/011124_analysis_by_cell_NEW.xlsx
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -980,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -1669,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">

--- a/PFF_SCR_TAX_ADAM/011124_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/011124_analysis_by_cell_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C197"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,17 +473,17 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_02</t>
+          <t>1K_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -492,11 +492,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_02</t>
+          <t>1K_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -518,24 +518,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_03</t>
+          <t>1K_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_03</t>
+          <t>1K_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -544,20 +544,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_04</t>
+          <t>1K_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_04</t>
+          <t>1K_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,11 +622,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_05</t>
+          <t>1K_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -635,11 +635,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_05</t>
+          <t>1K_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -661,11 +661,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_07</t>
+          <t>1K_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -687,11 +687,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_08</t>
+          <t>1K_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -700,11 +700,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_08</t>
+          <t>1K_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -713,11 +713,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_08</t>
+          <t>1K_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -752,11 +752,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -765,11 +765,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -778,11 +778,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -843,24 +843,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_10</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_10</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,46 +869,46 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_SCR_01</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,20 +921,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_SCR_01</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_SCR_01</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -960,11 +960,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -973,24 +973,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -999,11 +999,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1012,11 +1012,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1025,11 +1025,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1038,24 +1038,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1K_SCR_05</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1K_SCR_05</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1064,11 +1064,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1K_SCR_05</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1077,11 +1077,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1090,11 +1090,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1103,11 +1103,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_SCR_05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1116,11 +1116,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_SCR_05</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_SCR_05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,7 +1155,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,7 +1168,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1181,7 +1181,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,7 +1194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,11 +1207,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1K_SCR_08</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1220,11 +1220,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1K_SCR_08</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1233,11 +1233,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1K_SCR_08</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1246,11 +1246,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1K_SCR_08</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1259,11 +1259,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1K_SCR_09</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1272,24 +1272,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1K_SCR_09</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1K_SCR_09</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1298,11 +1298,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1K_SCR_09</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1311,11 +1311,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1K_SCR_09</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1324,11 +1324,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1K_SCR_10</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1337,11 +1337,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1K_SCR_10</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1350,11 +1350,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1K_SCR_10</t>
+          <t>1K_SCR_09</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1363,37 +1363,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_SCR_09</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_09</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_SCR_09</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1402,11 +1402,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_05</t>
+          <t>1K_SCR_09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1415,11 +1415,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_05</t>
+          <t>1K_SCR_09</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1428,7 +1428,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_06</t>
+          <t>1K_SCR_10</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1441,7 +1441,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_06</t>
+          <t>1K_SCR_10</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,7 +1454,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_06</t>
+          <t>1K_SCR_10</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,72 +1467,72 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_07</t>
+          <t>1K_SCR_10</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_08</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_08</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_08</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_09</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,7 +1545,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,11 +1558,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1571,11 +1571,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1584,11 +1584,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1597,24 +1597,24 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_07</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1623,11 +1623,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,24 +1636,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_01</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1662,20 +1662,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_03</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_03</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_03</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,7 +1714,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_03</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,7 +1727,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_03</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,24 +1740,24 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_03</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>5</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_04</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1766,11 +1766,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_04</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1779,11 +1779,11 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_04</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -1792,20 +1792,20 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_04</t>
+          <t>WT_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_05</t>
+          <t>WT_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,24 +1818,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_05</t>
+          <t>WT_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_05</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1844,11 +1844,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_06</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,11 +1857,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_06</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,11 +1870,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_06</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1883,11 +1883,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_06</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -1896,11 +1896,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_06</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1909,20 +1909,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_07</t>
+          <t>WT_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_07</t>
+          <t>WT_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,11 +1935,11 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_08</t>
+          <t>WT_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1948,11 +1948,11 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_08</t>
+          <t>WT_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1961,11 +1961,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_08</t>
+          <t>WT_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1974,11 +1974,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_08</t>
+          <t>WT_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,11 +1987,11 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>WT_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2000,11 +2000,11 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>WT_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2013,11 +2013,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>WT_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -2026,11 +2026,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>WT_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,11 +2039,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>WT_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2052,11 +2052,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_10</t>
+          <t>WT_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2065,24 +2065,24 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_10</t>
+          <t>WT_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_10</t>
+          <t>WT_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2091,7 +2091,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>WT_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,20 +2104,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>WT_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>WT_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,7 +2130,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>WT_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,7 +2143,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>WT_SCR_02</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,7 +2156,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>WT_SCR_02</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2169,7 +2169,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>WT_SCR_02</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2182,7 +2182,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>WT_SCR_02</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2195,11 +2195,11 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>WT_SCR_03</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2208,11 +2208,11 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>WT_SCR_03</t>
+          <t>WT_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -2221,24 +2221,24 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>WT_SCR_03</t>
+          <t>WT_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>WT_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2247,11 +2247,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -2260,24 +2260,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2286,11 +2286,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2299,11 +2299,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2312,11 +2312,11 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2325,11 +2325,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -2338,11 +2338,11 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_SCR_03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2364,11 +2364,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_SCR_03</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2377,11 +2377,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_SCR_03</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2390,11 +2390,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,11 +2403,11 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -2416,11 +2416,11 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2429,20 +2429,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,7 +2455,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,11 +2481,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2494,11 +2494,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2507,11 +2507,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2520,11 +2520,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>WT_SCR_09</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2533,11 +2533,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>WT_SCR_09</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -2546,11 +2546,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>WT_SCR_09</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2559,11 +2559,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -2572,24 +2572,24 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2598,11 +2598,11 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,7 +2624,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,7 +2637,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,24 +2650,24 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2676,24 +2676,24 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -2702,24 +2702,24 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_09</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -2728,46 +2728,46 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_09</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>WT_SCR_09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>WT_SCR_09</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_SCR_10</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,20 +2780,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_SCR_10</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_SCR_10</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,7 +2806,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_SCR_10</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,7 +2819,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,7 +2832,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,37 +2845,37 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>2</v>
       </c>
       <c r="C186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>3</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -2884,24 +2884,24 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_07</t>
+          <t>WT_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -2910,11 +2910,11 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -2923,59 +2923,59 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_09</t>
+          <t>WT_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_10</t>
+          <t>WT_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_10</t>
+          <t>WT_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,13 +2988,286 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>3</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>3</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>4</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>5</v>
+      </c>
+      <c r="C209" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>3</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_09</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
           <t>WT_TAX1BP1_10</t>
         </is>
       </c>
-      <c r="B197" t="n">
-        <v>2</v>
-      </c>
-      <c r="C197" t="n">
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+      <c r="C218" t="n">
         <v>0</v>
       </c>
     </row>
